--- a/صيدليات دكتور مصطفي طلعت_2025-12-25_11-31.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2025-12-25_11-31.xlsx
@@ -71,18 +71,6 @@
     <t>375.0000</t>
   </si>
   <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
     <t>TEMPO COOL</t>
   </si>
   <si>
@@ -99,27 +87,6 @@
   </si>
   <si>
     <t>0:1</t>
-  </si>
-  <si>
-    <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t>47.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -905,18 +872,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -925,31 +892,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -965,21 +932,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>15</v>
@@ -991,167 +958,68 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c t="s" r="C14" s="8">
+    <row r="14" ht="26.25" customHeight="1">
+      <c r="N14" s="13">
+        <v>950.09500000000003</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>35</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>36</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
         <v>37</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c t="s" r="H14" s="9">
-        <v>38</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c t="s" r="L14" s="10">
-        <v>26</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c t="s" r="N14" s="8">
-        <v>39</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c t="s" r="P14" s="11">
-        <v>40</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c t="s" r="C15" s="8">
-        <v>41</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c t="s" r="H15" s="9">
-        <v>42</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c t="s" r="L15" s="10">
-        <v>26</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c t="s" r="N15" s="8">
-        <v>43</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c t="s" r="P15" s="11">
-        <v>44</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c t="s" r="C16" s="8">
-        <v>45</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c t="s" r="H16" s="9">
-        <v>38</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c t="s" r="L16" s="10">
-        <v>26</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c t="s" r="N16" s="8">
-        <v>43</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c t="s" r="P16" s="11">
-        <v>44</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="26.25" customHeight="1">
-      <c r="N17" s="13">
-        <v>1174.595</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>46</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
-        <v>47</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
-        <v>48</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1195,25 +1063,10 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
